--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/25_Denizli_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/25_Denizli_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2487C839-38AE-4E2A-A5F8-165B93916C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F92DF537-1FD0-4C69-A92C-B3629619CFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" xr2:uid="{AB716CEC-4A73-4F1A-8966-D115A85D3E3F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" xr2:uid="{EA52925A-882F-43B9-B1EC-176F7B61A59F}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -954,13 +954,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{E7D60D29-74B3-4A0F-B4EF-DB2534134B28}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{4EAFC04E-6D97-41F1-AE11-AABFE35E081A}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{1A31E5EE-0424-4E6E-91BD-C886D250C0AA}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{BA1F63AD-1AE3-4E41-8A4F-3CDB5680FDB1}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{7B51E123-68C6-4A63-8E42-5D3999FE95DD}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{736C4F0C-5E5A-4FFA-8387-D6EDA975BF0A}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{B4A9634D-9BAE-487E-AD82-584D7BA2A0C6}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{7C4E1ACA-69DE-45E1-A26B-7A6D5C9A6ACC}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{18854A8C-AC19-431F-B0E8-B908930B0C25}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{A8F81503-61B3-443D-B9A1-5E1579D99DF0}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{624DA0B0-BB61-40D5-B878-0F7D28A11441}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{B64F1A6E-B28C-4C1F-B724-60A4452511C6}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{85A80FB7-2F8F-4442-B59F-7BF4CD7637B9}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{3433F415-603D-49C0-AFFD-B1BA7A979489}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1330,7 +1330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F8D7C4-65BE-4F16-B6BB-BC30B251E305}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9ED4C5-7086-4B1C-82E6-D33C06916AE0}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2639,18 +2639,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1A08ADFF-E577-444D-B3A8-EF203030AC56}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CC29D266-F14D-4F21-9925-D4D313925AE2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{56B25054-8A9D-4A1E-936E-C7593A244543}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{56510E81-A320-4902-968F-E6F0DCF6E21A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7E1C333B-1072-4B73-891C-A26615F717C2}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{95101298-C500-4BCA-BEE4-5CBBEB101313}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{743604B3-1FF4-4929-BDDA-4E6875191091}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E704384C-2403-4A20-AA51-0D152AFBAE2E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BB140531-5630-475A-9795-10D5839335D5}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F689CC54-0404-43F6-A003-91ED7A05D554}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DECA7EA6-8002-47F5-9931-2C3260624B85}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CA7DDDD8-CB2A-4FA4-B82D-E01FE086834E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C86D5B74-8A83-4878-86A9-D72727A0893E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FE1E386F-88C3-497C-8063-64806C63EDBD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{769BDBEB-0852-46E4-8095-969CE13AD3AB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{81E19F85-9EFC-4606-BF3B-DE9DFE7C7A12}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{66DF17A6-ED2B-4BE8-9DAE-87A4FD272284}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C9257131-5934-4F16-82E6-C37750F07F53}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A34F7BE4-A91D-4B4D-BEA7-F49754264F0A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{474573C5-32F3-4815-83E0-2CB104DA4DFE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2BCFB264-1847-4A9E-B8A0-664F34B4B639}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{68FD1A26-02A5-4A88-898D-0C30442435F6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{276E04E9-5DBC-47A8-B059-0FBFECFDCAFA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F566DC52-FDC3-486C-9579-EA9A34F70B6D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2663,7 +2663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1729A7C-B347-4564-B5A4-E303641C9F7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BAF2A5-F471-4883-8ADF-29F5A905ABD6}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -3945,18 +3945,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{481B0FA0-A428-4D0E-A3AD-F719D431C4DA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{434B5AE4-EC62-435F-B0C4-7BE374DB5848}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{112BFAF3-C620-4666-BA1A-71089040AA99}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C21A4F78-5B83-4677-9620-9523335D6F6B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C2094E87-AD37-4EFE-9B6A-308708043C86}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2D972F02-0AB8-48EA-830B-0463C3A431D6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{41FB0656-5F84-4368-93E8-3AF457F34254}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F52D3F2D-17C9-4D06-B543-EB6C51494881}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8373B50B-28ED-4D06-8927-E061C663A177}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0D895E40-C190-41AB-94A3-173723F72EFB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F4E894ED-8312-4FE9-A4FE-BD994BCCC257}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{60768C86-8F1C-486B-85F8-3D841E97B22F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B2C3F85E-E688-4C47-9715-52AE0A8D4C0A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4E56D48F-CC6D-46E9-B796-E905CEE7B1E0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FD934D48-6D86-4185-913C-EF707B12E206}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{226BCEF0-9839-439B-B49E-4EEE8BAF65D3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A68A2F68-AEC7-44D5-9152-B498AB53AEBB}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{537DD40D-77D1-4A0F-B5D3-58F91207EEF0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{39830B66-E4EA-4653-8285-025DDCF44173}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{95592726-AE78-4C0C-8403-588DAE8B1DFD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{573A208F-0757-44D6-8440-375A9E3B8EE7}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DA19F6F3-E097-4057-9A9E-B7AD795D9799}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9E01198F-EDD8-459B-BAB5-F66401FC0962}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{81566D14-D997-4808-A20C-CAD4862E0613}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3969,7 +3969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293F854A-FAC5-4427-BBA4-0D645C806559}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143C07CC-8C6A-458D-9FA3-5B3CB56DD283}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -5251,18 +5251,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AA021068-7971-4C99-B2AD-C7088712BBDF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{437011C7-A0C9-41D3-AE60-AF63A5669302}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F97E3FD9-C985-4B2F-84DD-C0FB28C4F7BF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3E89D803-EE91-44DB-83E9-7A229CAA7CCE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{07E886F5-93D3-4E04-89A9-49C125F35A5B}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{27AB779D-7504-438B-B02A-A94A1D1E2CF4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{53A25804-55F5-4FE7-BA9D-0067ED7AC41C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7EC67273-A85E-4F69-B80C-CE565292D944}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C8D45C12-DE44-4EB6-87E5-0E928F75465A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{31DEC3A2-182F-422A-80BD-6C95BA7821AE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CB629508-1EC2-46DF-9B03-94D377D9498F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{67AB6A56-4D6D-49C1-812F-C3BAF09936DB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{38A7E504-198C-46BA-B0F3-6B6B1FB00A15}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AD17F9C2-6C0B-46EF-A375-1D29964E3116}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C06DD4C7-7AD5-4D11-B95B-A49DB8412583}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D3B72039-89A7-4612-9844-2B1024E02B34}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AFB04A19-1564-46B9-B88D-6A66EB3372D4}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{47780F6D-9A24-4E9E-A74F-F204D798B196}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AB01087E-A47D-4453-BCEF-87CC5C2406F3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{862F46A0-21E1-4021-89B7-1B3D3FCD7D3A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9536992E-3CFB-4A02-8BD9-F8C3EABC8345}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A6640C65-659C-4FAE-8706-1376F9076E24}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DF6B4F95-8E51-4F33-B293-C5D7CA6C976D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{394036E7-FB86-4D50-B459-17767725C7D7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5275,7 +5275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4182D4-A85A-437A-BF23-3D232FB3369B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB4BA5F-1A2D-410B-8012-4B02B5EAEABA}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6545,18 +6545,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9C7AA151-16A1-4A9C-8EC7-6F58522EBA1C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D803C676-106F-4BBF-B532-E34CA65D6CA0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F839A983-D4CC-4B70-A3DA-0FB07D3FD37D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C78D4A8D-7C96-49F7-8F53-250C50967D3A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5AFAFBCA-32FA-4E07-9642-C602950D43B7}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{39AAC0BF-9827-49E6-BB7F-219A4D7BDEC2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CB75BF38-A8B6-449E-8B25-010F92420566}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CA0E1366-4E70-406B-809C-6E72076036B0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{89E3B79B-EB6C-4762-BDC8-6921DE186653}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8DE49E41-3176-4912-A5B7-EBE02629D043}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2B3702D5-BC56-434A-AE1E-C9BC15A64FC8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7F00733D-AF47-41FA-84EC-D6A411B0F414}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{820D2B60-62C2-41AA-AEB8-78BABC24E828}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0D0C2A02-A14D-4D04-B6B4-8B93AD2181DB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6876ADA3-060F-4802-A097-B5243172FAA6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{81EC6701-47A3-4D66-B396-E383D54E45B4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D169C706-DCCF-4E54-84B5-8E87CACD2379}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C5727E8D-ADC6-4C9E-8C5B-2C2E6883CB09}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B3BD93FC-18D1-43C3-955C-28689E8A41F8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DB8AC367-1381-4852-8262-C785EDD0DC76}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CB5879F4-F1CF-45B7-9618-88D300BFBA98}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2B403C0B-22D4-45AA-AC81-37DBF215F961}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{384C0130-1F8F-4564-A020-21266627F283}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5C3CE2A0-D205-4500-A522-AD3B38499F95}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6569,7 +6569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4764DBF7-12ED-44A0-A86E-CAF8AFBBB1D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E825A150-811C-4C5A-AAEA-9D0F3F148747}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7878,18 +7878,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{795D3B08-DB6E-480F-ADC1-FAA1CB761B17}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B214492A-AD22-43D9-9A56-A87A5DAD7C5E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9183F6C0-64AB-419B-854B-3556BB322988}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{860BEA0E-31FE-437D-8BC2-FA3011873C8F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2711A69A-D242-4D0F-92D2-5091598FFEAD}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7A9A1B3B-5046-41D0-A282-1A09E494E8BB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2E0BBF3E-47D1-4B03-B24B-5339A6FE9BD4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5AC95249-D6A2-48AA-9C51-DFE35E462733}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5741E940-8865-4249-85E4-FEBCB717371F}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2ADE1EDC-7237-4D1C-BC12-E1E1042B622E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{440DBA8A-3920-4A46-A26A-A7D6EBED265D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AB9CD34E-BFF9-4714-93F1-273F00C00AE0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BD0D4C04-6577-423D-BAEC-EDC5DA906E29}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A2F6CBAA-F2B2-4FA6-86E6-D6F40864B203}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B3EB7030-3A3A-48C7-AA64-B3359785F10A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F40C62DC-813D-4A10-B498-D3B52929ED80}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DFCFCA1B-974A-476E-848C-C95FDD3B8FCB}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C0CFAFEE-3F0A-4C2B-881F-20FF9AC2E80A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{670AD8C9-D4C4-45F7-BE07-E80018F6079E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3CABFEE9-8E8B-45F9-AC8C-C4C4EDF50859}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{01FA128A-04C1-4600-A462-706438174733}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{47AC7578-42BE-4FE3-A1FF-D98DC0B7B66E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2EA5E004-B17D-4EDD-8D37-AAEDCC39EEEC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{28044457-205F-4362-AE0C-E99F23940588}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7902,7 +7902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F75FE0-3B75-4525-9601-00942DC726F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CFF21F-2A4B-478A-B2F9-676971409A92}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9211,18 +9211,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F69CE749-31D2-4849-BFF1-F7C0BB06F4B2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{52D99AF9-FB6A-4FC0-8B42-2E6D839EA46F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B5B35ADC-314B-4C8A-AD8D-704299649037}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{525B882D-5902-40D6-A36B-FA19312CDFE8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B47220FA-B845-4F67-85E0-8993C3B9601E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5D24EBAF-2E60-445E-9757-5B33350F0309}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{195AEB72-1A95-4CD6-8E12-67D5F471AE8D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{84FBFAA7-8398-47D4-87BD-0A4A314CE8E1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D0ECDF3D-1374-4B21-8BAA-10B4F56FD9BA}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5909082F-54D2-4C4C-8F14-46493228A808}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FBA6FD59-910E-41F5-99C6-584D9174EAD7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8A5E0A4A-6A79-45AC-93A2-5B8D642C144D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1A7B3746-1F93-4FC3-9C16-F8F3CBC3A615}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C6DA84DF-8466-490B-A7A7-7B3F1606747F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5C83D70E-6993-4CFA-A59C-4523DC59C9FC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{76F4CC4B-0137-4519-98AC-961B31ADE091}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AF3CAC44-88F2-43A8-A525-E6DCF2222052}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5BE22F72-B2B9-4944-B671-3DF38F1E1887}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C3D7E5DD-92C4-4D17-854E-7665663B6F22}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{191E24F5-BF16-4CAA-86D6-54E7A0557F19}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{52579F83-58F7-448F-8BF4-D965BC17B437}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C6CCE0F6-C809-487E-AA94-BAE5362C8339}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A3186AD8-096A-4AD4-ABBE-267B93A296C6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9D1D35F1-2415-4BAF-9717-3C34D90B3F7D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9235,7 +9235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E47D18-EFF6-430A-A72A-E4527904233C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582A09C8-357E-405A-95D6-58D11B30235E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10544,18 +10544,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7219DBF6-8F2A-4F9A-9E9E-19F3825C528E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B8C7ECA6-785C-405E-B707-7072C8AA2A95}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BD49690E-3DF3-45A1-9266-90637849294A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C493401F-750E-446C-AAA2-E93C8EFC127F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{25964036-3A41-4A10-8FC9-2DB47B79AA7D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8D42F6C3-A59A-490E-A8FA-57B733D02F79}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FEF03FCD-F6C0-43AE-A4C9-7AF28F36C893}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BE89434D-3492-40A7-A581-AD4026F7FEC8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{468CE507-9F98-48F3-864E-2DA7F478FEF5}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2C1CC320-48F4-4762-9EBE-DD80607BEF79}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FE764314-863D-444D-BDB5-11D27D716EEE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C196F27D-A45E-4992-9EF7-59C11C4C9363}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5201976D-A3E4-47A4-A9B4-B8AF8FE7751D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E10649A0-9133-4CD7-9890-92D0EDBB81BE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{824FC6D4-1251-413B-9225-9F7B973EA539}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BC0347C6-69AF-49BA-AEC5-A341D978B641}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FCB02BB4-5156-4C7C-85B9-0DBEB3A3FC57}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DADBBE87-1D10-4EC7-8002-0F66AD0BCD9B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B33295E8-60B5-4B66-918E-BBF9ABBBD7D3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AC7BF75A-F588-4ED5-BE71-342F2A073A11}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1E1FCE19-24F4-474B-8DC3-406273493FD5}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9134DA29-8BBF-4FB9-8A70-67F3542F6919}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2D872097-D716-4254-B511-12A45222817D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BFAB3611-8FC9-4EC5-8590-9DBA72A9E643}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10568,7 +10568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFF8001-B849-491C-976A-529EF6C6B0D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC762944-11FD-45EC-AEF4-9BC742860127}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11873,18 +11873,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0D1B36E5-9FD0-45DE-A525-45F194B6DDAB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{522FBA75-45F6-41B8-8DAA-DFAEE18B1300}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9F6BD56D-FE51-4AC4-89DD-BA4AD7551E3B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A5332AFF-D5C2-42D2-A265-CC39D377D4A6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{72865314-1B43-4518-99A7-F1F234E83E9A}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1EE2E089-852A-4E35-A353-420E65EB97AB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EB8FB676-ADB5-43E0-85DF-5226C2AD91EA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{09F40E51-252E-4905-95A4-830EFEB9F814}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F8C9567F-3835-41B1-9BD2-4753E6240AC0}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D1B14DA2-E4B9-4CC3-8559-44DD1A8F34A7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C2B70075-E374-459D-B8F9-B3A6F062728F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{975C968C-F744-430C-AEE6-B21192F05B80}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7E69C7A1-1AF4-461B-9C5F-DCCDBCD11AB2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3026C6F7-3F73-4074-A4D1-80A70734B34D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{57B507CB-6535-4D16-AAEE-B255DA90F579}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2D1EC216-FF89-4D32-B050-AADF04819F36}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4BDE116D-C58D-4700-8CD8-54086A973A55}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D5AAF5EE-B19E-4DA6-9BF7-0C4616AD3BDC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FA689E2A-E626-4D11-AB3A-8D7127EDB5F0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BCB2CCDB-ACAB-488F-A334-9ACC041388C9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{766389BD-F6D2-48AE-A88E-925DD8184304}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F8387DBA-7B2F-4304-8697-BAAFCD31D661}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C6A8A05B-4F80-41F1-AB46-03B685B0886B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D8BD6CB5-E80F-4495-83D4-84FDD2A9D031}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11897,7 +11897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D03AE6F-B0BB-4A9E-9E34-40C59F3360B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7A0253-FF57-4E16-B7FE-5E9C459C2160}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -13191,18 +13191,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A807B170-295E-4276-A6F3-3F6A164E99C2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{32E52644-01F8-4DD1-8935-BA4F4EF7DA52}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{59034FB4-5E49-482B-A0FC-14929AE86FDD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EE9922C8-FD9E-482A-AF21-0BFB9A72A30B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C6E8CEBE-40AC-4FFD-8B62-612115A11CBF}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A6036F55-3BA7-40C5-8B36-0FB33EA4CBC5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{204D1AC2-34E9-4991-AB9A-F0F9B1520016}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6ED401DE-D5E9-4C16-B963-A7943E1C40C1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6422917A-8D56-4D8A-8B37-D48686BB57C0}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C4CF7931-2641-4EF0-8ADF-73075BFF9E06}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8ABC87CF-95FE-442D-A7E6-11600F8AFBCA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{56B6F88C-13B6-4470-97ED-413F1AF0F19B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{92382E5A-F6FE-42E9-8B05-87FE59E0FBD8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{453A16BD-23E4-4997-90EF-FB9412176B4F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A03B43B6-7CDD-4D4B-8E56-31B3CAD08DFB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{80090DF6-87AC-4957-A764-82EAAD528E12}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C499AC47-8AA0-472A-90EF-B1C97A1434C5}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D0301ADA-7877-4DB2-A60D-1370B702C751}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{321736D6-281A-4D15-94DA-007239365F1B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{353B3613-BAA8-404F-A15D-BB4072DF8ED5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D2FDA83B-C2B9-443A-BC12-8EAA3072A236}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EF4C4994-1AFD-41C2-82D6-4ACF95752971}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AF14B1D8-7B57-4948-9FB0-77630813912F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{77FB4D53-8A58-4BE8-B633-8171888D83AE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13215,7 +13215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2892E9D9-0372-4DA0-837C-C24C718DCF1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351DEEC5-84C5-42AA-975E-3A64D5650641}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -14497,18 +14497,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{38878874-A848-4DB9-A27F-60CFA4400D83}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{208AC10F-A57E-45F2-A7E2-C7B5575BD971}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8BE144A0-013B-4F2E-BBD8-1FD087C55FFC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5C21454D-3F25-4DA5-A2DB-9C32C48EAF31}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AE9818CA-8477-4589-8501-1B0E205F96F9}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{189C8456-B982-469A-B428-EBE414FA1343}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A5B37D3B-50B1-41E6-9735-444B050EA70A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FEF1A996-3018-4D10-B249-09DBDF552014}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D355A583-B3B8-4522-86AD-AD85E27E583A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A26E818B-493C-4826-8A5A-05E4943A6BDC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A711C53B-9851-46BF-9D6C-855A21F8DB55}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EECF350F-D8D9-4891-87E4-BD4A7645BC1E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{14255B05-75E7-4A40-958D-823F3519FAB7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0A957B4F-8595-4233-93B8-41DCD60BDBFD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E9BABB24-B7B4-46AB-9683-AA66A71EE249}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AAB84B30-9636-4010-9652-B3B365305729}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ACEE1B40-2575-4EB7-BF4B-7574B0273BB0}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5FB8F88C-AB5E-43FF-B3DF-1B55A1F7BE85}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B9BBED33-6B4D-4528-BDA1-7745C44DB673}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2F0DF07D-93B8-475D-A3A9-3594FD719F6E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{699692AD-0EB7-4429-8BA6-6BBAF47CAA22}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F7F50E75-AEA3-4F7A-8E5F-3401D1710985}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{23E7D396-88DA-4719-B062-33B0FD57B355}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2F13ABE8-66D8-4542-8A90-2986986A430D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14521,7 +14521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BDD683-00A5-4B2C-9170-2AE6E4D12B76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB738E22-4B66-4A3D-B951-ECDB5B5448BD}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -15803,18 +15803,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DED99C04-2D79-4662-8AE6-89522F6AD7B6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{26DB4132-4FB0-4E68-9E3E-6A0ECA8E78EC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1E67601A-62C6-4D99-B5DF-313C9ECF50A8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{82212862-596F-42F1-BCC8-4AA2ECABC473}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{10242E8C-FB02-4FFC-BD95-6803A812128A}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D9A25E97-B37A-490F-962E-4B6454DB2B60}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3BEF0B16-266F-400B-AFB4-03C52FA62833}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F9501758-52EE-43DA-8534-A20C7DD395B9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{09E058CE-415B-4530-84F8-A67AA14B941A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2239A85E-439F-41AB-8A43-41B6F9FED262}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E2B6F55A-58BE-4FDD-870D-73CEDF07FB08}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{362105BE-F259-4865-BF9F-B320FEBC753F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9F034F93-D3D8-43C9-9F9C-60F1C6E1F394}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{92E71970-A851-402C-BD3D-DA63FBBF3011}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A6A9F1C7-043E-41A0-8F6F-E8EF4B52B848}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6AB740C1-787A-425A-971D-BEE4CA73FCB1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A1EE022D-594E-46A4-9AC5-4ED62213F669}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A789DDCC-1ABE-45FE-8CFD-0B71BADE0ED6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9FC18B68-5C10-4354-88BD-B4449D654C5C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{61E134D3-2185-45CD-A09D-01F8C4D11623}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A219082F-F4A7-4058-A215-069A4C5D74A3}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C4C93E57-51FC-4622-8C96-23CA98BAE82F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{03F8573F-C48C-47F3-A9C5-A0352B3B7600}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4CC74657-576F-4223-9E19-8D6C34A8FF25}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15827,7 +15827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F24CEAA-3100-416A-ACC1-B41E48C4E23B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67BFC59-D38C-4A0B-A00B-186EE72DA5C4}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -17109,18 +17109,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7FC80AD0-DBEA-4701-ABC6-390698688A94}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B4E80F7F-C2F6-4259-AA49-1B0B35F929C3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6545E71B-6DDC-477D-AEEA-AE26DDC3D9AB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FE73AAFA-08BD-4CAF-9645-D02FB42FB194}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FC56DFD3-A302-47B0-A15E-8E3A8DD5AE7E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0038D22E-7BCA-4327-BFDB-F04E8388D662}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9C39FBBD-951B-4AD1-A08C-1CB719ECEDF2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AB49F873-00D7-4D3F-AC22-5E93CC1630BB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E528DFC7-D702-4ADD-802B-5D733BD895DA}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{43A36F73-C2A4-44EB-B8AC-FD1206D0B06E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7FB64AAB-ABA7-4CB9-A4ED-27747A66A77E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2EB7EDE6-3F1F-4C9A-8276-46DCB3D007CE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4AE05841-87C0-46A2-8633-0791450C9557}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E4ACCE32-702F-489B-A785-935D21A44D88}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FCFB7FB6-B6E0-4D58-A8E1-E20E8EF16DB3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D313DF9C-BBD9-47AE-B15C-F333E7507538}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0AA97265-8BC2-40D5-91D0-7147B16A0063}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1119C478-BC19-4A89-AC17-B909497357B2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{13A0F8E4-26A5-42A5-AE6D-690B4F3975A2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3AF8D797-2EA3-466B-BFCD-4E498FE8A640}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2769D66C-C158-4F87-B65C-F7C37F53C292}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{78E9B455-55E3-43BA-B624-E1D3D00DDD8F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{648BAFDC-E508-4602-B0E6-0984427B9169}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{388757D7-FEE3-4B8F-B6A5-7E07B41379CC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
